--- a/Instances/data.xlsx
+++ b/Instances/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11659\Desktop\UMich\2021Fall\IOE591\Final\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11659\Desktop\UMich\2021Fall\IOE591\Final\Code\Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE1B589-1784-49D9-9873-9DCDC502A8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C209F64-C45E-4A2E-BECA-61BDC781D267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10785" yWindow="4305" windowWidth="15705" windowHeight="12960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patients(full)" sheetId="1" r:id="rId1"/>
@@ -3353,7 +3353,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Instances/data.xlsx
+++ b/Instances/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11659\Desktop\UMich\2021Fall\IOE591\Final\Code\Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C209F64-C45E-4A2E-BECA-61BDC781D267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0859E57-BEDF-4724-BA7B-95967CFECBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10785" yWindow="4305" windowWidth="15705" windowHeight="12960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10785" yWindow="4305" windowWidth="15705" windowHeight="12960" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patients(full)" sheetId="1" r:id="rId1"/>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D101" sqref="D2:D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3352,8 +3352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D05ED04-686F-4927-80D3-26E93FBB5071}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4387,8 +4387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACAC4AF-703E-4621-9815-4626689F765A}">
   <dimension ref="A1:H612"/>
   <sheetViews>
-    <sheetView topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="AE493" sqref="AE493"/>
+    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
+      <selection activeCell="B601" sqref="B302:C601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
